--- a/podzespoly.xlsx
+++ b/podzespoly.xlsx
@@ -1,88 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="20775" windowHeight="7620"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="270" yWindow="570" windowWidth="20775" windowHeight="7620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>nazwa komputera</t>
-  </si>
-  <si>
-    <t>grupa</t>
-  </si>
-  <si>
-    <t>wlasciciel</t>
-  </si>
-  <si>
-    <t>plyta glowna</t>
-  </si>
-  <si>
-    <t>Procesor</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Grafika</t>
-  </si>
-  <si>
-    <t>Karta sieciowa GB</t>
-  </si>
-  <si>
-    <t>Dyski SSD na dane</t>
-  </si>
-  <si>
-    <t>2022-12-05 14:17:58</t>
-  </si>
-  <si>
-    <t>AERO-144</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>k.piatek</t>
-  </si>
-  <si>
-    <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
-  </si>
-  <si>
-    <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GTX 750 Ti</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,18 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,88 +407,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col width="19.42578125" customWidth="1" min="1" max="1"/>
+    <col width="19.85546875" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13.28515625" customWidth="1" min="4" max="4"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="21.7109375" customWidth="1" min="6" max="6"/>
+    <col width="14.5703125" customWidth="1" min="7" max="7"/>
+    <col width="24.5703125" customWidth="1" min="8" max="8"/>
+    <col width="17.5703125" customWidth="1" min="9" max="9"/>
+    <col width="17.140625" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>nazwa komputera</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>grupa</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>wlasciciel</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>plyta glowna</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Procesor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Grafika</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Karta sieciowa GB</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Dyski SSD na dane</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-12-05 14:17:58</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>k.piatek</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-12-05 14:54:58</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-12-05 15:08:46</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-12-05 15:09:28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-12-05 15:11:50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-12-05 15:12:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-12-05 15:17:12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-12-05 15:17:40</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-12-05 15:18:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AERO-144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ASUSTeK COMPUTER INC.P8Z77-V PRO/THUNDERBOLT</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Intel(R) Core(TM) i7-2700K CPU @ 3.50GHz</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce GTX 750 Ti</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
